--- a/金融相關/Stock板標的文爬蟲/Stock板標的文.xlsx
+++ b/金融相關/Stock板標的文爬蟲/Stock板標的文.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -379,40 +379,55 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>月份</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>作者</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>推數</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>網址</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>年份</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>星期</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>時間</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>標的</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>方向</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>分析</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>進退場</t>
         </is>
@@ -421,2888 +436,2789 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[標的] 旺宏2337</t>
+          <t>[標的] 台灣高鐵 2633 安全多</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/09</t>
+          <t xml:space="preserve"> 4/04</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>cchaha123</t>
+          <t xml:space="preserve"> 4</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>Arim</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1581246654.A.0BF.html</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Sun Feb  9 19:10:52 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617533195.A.B28.html</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>旺宏2337</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>請益</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>各位先進大家好,小妹初入股市三個月,第一筆便當錢就是靠旺宏賺來的,現在對這隻股票不知該進還是該退,現在在有記憶體題材的個股都有上漲的趨勢,然而旺宏在2/4~2/6三大法人連三天買進,KD及MACD都打勾的情況下以為要噴了,卻在2/7號空軍日給了尊重,法人倒了一半的貨,股價卻沒下跌太多,查了一下旺宏在大陸沒有設廠,這兩天大陸封了不少城市,在大陸NORFLASH的公司有新芯及兆易創新,在武漢及上海各有設廠,2/10許多廠無法如期開工,想請教的是會不會有轉單效益?又或者停工後導致5G工程延遲,對NORFLASH的需求下降?2/7號公布1月營收旺宏1月營收27.56億元，月增3.5%，年增21.9%。</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>18:46:32</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2633台灣高鐵(例2330台積電)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>有不少北漂小資都是為了省錢才坐台鐵，這次發生這種事相信不少小資們會轉搭高鐵返鄉最近一季毛利率已升到四成，股息發放率超過百分百，可見公司看好今年獲利</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>(非長期投資者，必須有停損機制。請益免填)進場：31.5以下無腦進長期投資不設停損點</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[標的] A50指 回檔多</t>
+          <t>[標的]  6411 晶焱 短空</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/09</t>
+          <t xml:space="preserve"> 4/04</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>illdoit</t>
+          <t xml:space="preserve"> 4</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>wegoliving</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1581222717.A.F31.html</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sun Feb  9 12:31:52 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617507534.A.9DC.html</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>A50指</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>多</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>病毒面：RNA病毒，構造簡單，容易變異空氣傳播，黏膜接觸傳染。4度左右溫度可以穩定存在-60度永久保存在高溫濕熱環境下56度活不到半小時30度空氣中不到一天失去傳染能力也就是說就算交通管制到深圳，海南島，只要開始邁入夏天就沒事。川普推特：等中國疫情減緩氣溫回暖我們再來談判(又要一直要簽一直噴！？消息面：繼石油之後首次以RMB結算巴西鐵礦石MSCI考慮在納入A股，12號發布滬京高鐵上市不到三週即在6日納入MSCI從個人信用卡信貸至融資甚至企業質押，最多可延期3-6個月國企，非國企對企業至個人承租戶減免兩月租金(大媽：你有再多地產也是黨的，說不用繳你敢討？供應鏈：2/2因擅自封路差點百萬人停止供暖2/4農業部要求不得封路，不得停止屠宰場，運送飼料車輛更是連高速公路費都不用繳2/5湖北要求禁止封路2/7大媽中央交通部明確禁止擅自封路來確保生活機能性。復工面：10號開始陸續開工最嚴重地區分三段2/10防疫物資生產企業，維持日常生活配套等相關上下游2/23號產值超越兩千萬之企業(鴻海等下週！？3/1號其他企業心得分享：大媽發現自廢武功後，解除封路把防疫物資產能回覆到60%預計下周產能恢復如之前許多資訊分析(美陸台等)進入高峰期感染人數大增。上從AI智能檢測抓你有沒有口罩發燒，下如台灣許多大媽監控腥聞最強監控國不會負你所望der</t>
+          <t>11:38:52</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>13000↓買入或者4HK基準轉換黃金交叉破了還有月30ma撐著再破還有上次破月30ma支撐6%撐著再再破還有經歷過15年恐慌，貿易戰恐慌的五年線撐著預計最慢在中國第一季GDP出爐之後利空出盡停損：大媽繼續封路自宮或繼續延後開工ps.不要說什麼大媽丟1.2兆護盤，扣掉到期的只有1500億進場。http：//i.imgur.com/zhoe3Xw.jpg真的丟1.2兆RMB還能創紀錄的3200隻跌停？</t>
-        </is>
-      </c>
+          <t>6411晶焱</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>空</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>基本面：歷年上市櫃公司平均薪資排名名列前矛，但似乎董監事佔比難以想像的大，證明肥缺蠻多，變相吸取股東權益，留不住人才當初這隻曾經炒作Type-C題材，打入Apple供應鏈，但炒了兩年，難以想像股價都欲震乏力，今年改喇叭電動車題材，確實也爬了起來，突破歷史新高，成為市場資金氾濫受惠股之一，看毛利與營收成長皆表示實際成長動能還是喇叭成分高技術面：突破歷史前高，出大量，量能非常不穩，，目前近乎盤頭，技術面也達一坡漲幅滿足點，勢必拉回修正，依照股性，這隻出名的差跟牛，高點出量，量縮拉回修正幅度都很大，當沖傻空也死的差不多，真正空軍可以開始起飛轟炸了籌碼面：端看籌碼分佈，主力融資已經退場，假外資主力也出貨差不多，真融資散戶還在沈浸電動車人手一台的風花雪月故事裡，可見羊群效應已經慢慢顯現進退場進場：任何140以上佈空20%，當日如獲利保留10%留倉，盤中出大量即往下空另20%停利：110，停利10%，破100Allin給臨門一腳停損：達150站穩出場觀望，代表趨勢成形，基本面已經改變。</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[標的] 2618 長榮航</t>
+          <t>[標的] 9917中保科 +~多</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/08</t>
+          <t xml:space="preserve"> 4/04</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>kgb2938</t>
+          <t xml:space="preserve"> 4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>yoyoyin0119</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1581167199.A.1FD.html</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sat Feb  8 21:06:37 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617523240.A.1EC.html</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>請益</t>
+          <t>Sun</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>最近航空股的討論熱度有明顯增溫的趨勢，原因不外乎就是因為疫情的關係，對首當其衝的航空股來說是巨大的利空。因而大家都在探討到底幾元可以進場撿便宜。但是好像沒有人討論航空股倒閉的可能性。華航就算了，畢竟再爛政府都會撐著，只是不發股利而已，所以不予討論。那長榮航呢？他沒有不能倒的理由吧？但感覺大家都認為他不會像復興一樣倒掉而一直討論幾元可以進場。假設今天長榮航不會倒閉，那最大的原因是什麼呢？我實在想不到。謝謝各位btw我14套了半年了…</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>16:00:38</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>9917中保科</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>多</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>一：109年獲利23.89億，EPS5.42元二：穩定配息今年配五元三：按殖利率計算目前股價還算便宜四：嘉偉親自加持向上噴出https：//i.imgur.com/Jrv4nnx.jpg</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>進場：95內進場停利：110元或嘉偉退出中保停損：book能！</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[標的] 6202 盛群</t>
+          <t>[標的] 6237 驊訊 曾經的飆股，突破多</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/08</t>
+          <t xml:space="preserve"> 4/04</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>fashionbaby</t>
+          <t xml:space="preserve"> 4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>kace111512</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1581175815.A.166.html</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sat Feb  8 23:30:12 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617466372.A.139.html</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>6202盛群</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>Sun</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>00:12:50</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>6237驊訊(例2330台積電)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
           <t>多</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>防疫概念股，且第四季單季獲利不錯，而且在武漢疫情下，耳溫槍晶片供不應求，預估長波段走勢續看多</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>進場71,停利85</t>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>【技術面】：https：//i.imgur.com/9d865JR.jpg在前天3／28(二)爆大量及超長洗盤十字後4／1(四)股價尾盤強勢抬升突破表態https：//i.imgur.com/wqGZWTc.jpgKD,MACD正向交叉翻紅第四天【籌碼面】：https：//i.imgur.com/bW7atNv.jpg一週大戶800張以上籌碼瞬間增加4.02％https：//i.imgur.com/pNpkfSv.jpg近期上櫃投信連續買超前幾名，案情不單純【基本面】：https：//i.imgur.com/nBLVOMF.jpg月營收持續增長年增200％以上！每季毛利率都高達50％，股價指日可待</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>剛突破隨時上車，歡迎抬轎＃停利：200大關壓力點，180-190之間分批下車＃停損：嚴重破支撐點102-105之間未能站上110</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[標的] 6488 環球晶</t>
+          <t>[標的] 6456 GIS-KY 雞絲多</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/08</t>
+          <t xml:space="preserve"> 4/03</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>wii0620</t>
+          <t xml:space="preserve"> 4</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>takasaki</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1581100309.A.E95.html</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Sat Feb  8 02:31:40 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617410998.A.1DB.html</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6488環球晶</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>請益</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>大家好，小弟是股市擦鞋童剛入市沒多久幻想抱股過好年結果遇到武漢起疫直接套在起跌點，砍在阿呆谷股板首PO希望各位高手高抬貴手指點指點回到正題6488的環球晶各大財經台的投顧大吹特吹的會員持股矽晶圓技術面：　連續三根黑K不知道算不算是三黑兵還是三黑鴉　連續三天沒過前高連破前低　跌破5日均線，10日均線準備下彎　KD在高檔死亡交叉，RSI和MACD也呈現高檔背離　https：//imgur.com/GoccPsK籌碼面：　資增券減，外資轉買為賣　https：//imgur.com/ECuPD6q　https：//imgur.com/INpcCyA2/6又發了一篇出貨味濃厚的新聞稿https：//imgur.com/vJXXYht</t>
+          <t>08:49:55</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">　下周一開盤找機會進場　突破前高441.5停損請教各位大大這樣進場會被嘎到外太空嗎==賺再多便當錢結果過完年直接連五臟六腑都吐出來了還請各位高手指點</t>
+          <t>6456GIS-KY</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>多</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>來挑戰這個洗出血的GIS-KY種種跡象都顯示他們家應該要重回蘋概股,除非主力都放假新聞本檔連續跌了5個工作天這五天賣比較多的為國票-長城目前看起來快賣光了,所以接下來應該無法再賣康和-台北看起來像玩短線,那麼有再賣下去的可能其他外資雖然都有賣,但和之前買超數量比較起來,看起來都像是短期的資金調整所以康和-台北分點賣出來的也有可能會被外資接手至於其他都是長期買的券商,就不用再提了希望短期籌碼的浮額看起來都賣的差不多了下星期就可以進場play啦</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>(非長期投資者，必須有停損機制。請益免填)只要見光就是死的GIS,搞不好主力在看了這篇就會給他洗下去所以建倉不要allin,不要買紅的,是對GIS-KY最健康的買法如果有一天你看到突破前高就買,賠錢的機率就滿高的短線操作基本上都會賠錢,所以當沖仔也不用看這一檔了那麼以長線來看,最低接手價可以掛單在108以下上個交易日的123是疑似打腳點位,也是可以當做短線上的停損點但我相信四月就是雞絲天所以先看168不過168我是不會賣的,不如220那一天再來看要吃哪一間和牛燒肉</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[標的] 美國航空 vs. 長榮航空 哪個比較好?</t>
+          <t>[標的] 2353 宏碁 超級多</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/08</t>
+          <t xml:space="preserve"> 4/03</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>kalaokla</t>
+          <t xml:space="preserve"> 4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>lulu1305174</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1581134030.A.FAB.html</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sat Feb  8 11:53:48 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617420597.A.1C2.html</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>美國航空vs.長榮航空</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>請益</t>
+          <t>Sat</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>如下</t>
+          <t>11:29:55</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>待討論請問各位高手美股美國航空(全球全幾大航空公司)長榮航空近期都跌得亂七八糟一個算是美國龍頭一個是台灣龍頭請問大家美國航空vs.長榮航空買哪個比較好?中長期哪一家比較優呢謝謝~</t>
+          <t>(2353宏碁)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>多</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>日K線：https：//imgur.com/MbkNcYO外資從1月份以來大買宏碁幾乎每天都買超只有幾天有調節轉賣超，宏碁Q2將大漲NB價格5%~10%大約會漲4000~6000元有助於提升毛利加上全球3月起進入第四波疫情又再度封城所以居家辦公、居家學習商機將延續到Q4才會趨緩。另外，宏碁的電競螢幕和電競PC頻傳捷報，現在也轉型成生活品牌開始賣能量飲料未來還會有更多的新產品上市。惟要提防33元以上有2018年1月山頂大量套牢賣壓，要靠外資才能突破。</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>(買進31；賣出36)(非長期投資者，必須有停損機制。)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[標的] 大盤與個股</t>
+          <t>[標的] 2834臺企銀 短多長空</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/08</t>
+          <t xml:space="preserve"> 4/02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ikj</t>
+          <t xml:space="preserve"> 4</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>GrexJosh</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1581137735.A.1D2.html</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sat Feb  8 12:55:33 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617368040.A.B4E.html</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>大盤</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>大盤本週還是以疫情為主沒新的疫情新聞時漲新聞說嚴重時就跌下週應該也是如此可撿：1.5G5G仍是年度大戲影響產業太多相關個股可逢低買進2.特斯拉概念股美股特斯拉已漲翻天了台股的還沒動等疫情穩定後就可能發動一樣可逢低買進看空：1.觀光股寒假延長代表暑假縮短第三季恐怕也難為現在不適合進場預計在第三季時再觀察2.餐飲及健身股疫情影響較密閉的空間人們較不愛去加上健身股去年已漲一大段短期預料將整理要撿也待疫情趨緩後再來</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>20:53:56</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>2834臺企銀</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>短多長空</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>日線從2/1起開始上升然而買方多為散戶個人估計可以漲到10.5之後會下殺到8可以拿來對比的有相似價位的開發金</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>進場：10.5以下退場：8心臟大顆一點：6做多止損：9做空止損：11</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[標的]  盛弘 8403</t>
+          <t>[標的] 特斯拉 多</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/07</t>
+          <t xml:space="preserve"> 4/02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>pubg1106</t>
+          <t xml:space="preserve"> 4</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>twobyone</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1581072212.A.B1E.html</t>
+          <t>99</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Fri Feb  7 18:43:30 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617369009.A.904.html</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>盛弘8403</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>21:10:07</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Tsla</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
           <t>多</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>先附上對帳單https：//i.imgur.com/6gNLg85.jpghttps：//i.imgur.com/W8aP6qs.jpg1.盛弘為敏成的大股東2.這波疫情到現在漲幅不大3.現在就是要跟著主流走</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>進場：33以下退場：25停利：40以上啦</t>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Q1交車寫下創記錄的184000台比全部多頭分析師估的都來的高很多誰說chipshortage??跌破眼鏡</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>無停損機制</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[標的] 特斯拉 多（內有單圖）</t>
+          <t>[標的] 6150撼訊 2018年多頭重現</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/07</t>
+          <t xml:space="preserve"> 4/03</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>astroboy0</t>
+          <t xml:space="preserve"> 4</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>amark</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1581075328.A.2D6.html</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Fri Feb  7 19:35:26 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617379932.A.439.html</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>特斯拉ㄧ張不賣奇蹟自來買個信仰爽ㄧ下</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>00:12:10</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>6150撼訊(例2330台積電)</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>多</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>補上單https：//i.imgur.com/jPdOFT7.jpg全球最大賭場上線啦每天交易量和波動比任一隻股票還大本篇主要目的是開放推文討論晚上10：30開市時基本面完全沒有基本面...都在看2022之後算PE80x想想根本無任何參考點有些人說把福特和通用加起來就是了又有分析師算出會有每股7000價值結果他發完文隔天做空技術面，完全在賭搏看看過年後幾天線型基本上在創造從沒見過的樣子以後應該有人會寫成書籌碼面（以下在雪球看的）馬斯克/員工約有20%死忠粉約有30-40%長期基金有30%剩下15%在市場流竄因爲流動不多，做空借出卷之後如果要回補就融易往上嘎共同意識要做空回補沒人賣就從500ㄧ路950但多單也想獲利了結就ㄧ路回來650QQ我沒經歷過亞馬遜和蘋果飛躍時期但多空交戰/高交易量時期就是財富重置的時候</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>抱一陣子，現在以虧兩隻黑水鬼了套房住的爽爽爽-幫QQ停損：馬斯克往生或離開特斯拉</t>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>以下是我根據同學會的文章，統整一下幾點資訊關注分別為：乙太幣、3月營收、外資買超狀況與分盤情況、大戶買超狀況與顯卡同業1.乙太幣：再創新高，來到2077，這波跟2018年不同的事，企業開始願意接受虛擬貨幣，認為本質上比2018更穩固https：//imgur.com/a/BnQPuJw2.3月營收：老頭大估計有6E以上，若以6E估計，1月自結的淨利率是8.9%，假設因為新顯卡上市淨利率提高到10%計算，淨利6000萬，換算單月公佈自結EPS約1.34元！白癡估法就是1.34*12=16元，對照現在股價167.5，PE10x，給20x就是看320元，因為接下來營收有可能月月高!重現當時2018年盛況，毛利率淨利率都有可能再提升3.blockchainETF的外資買超，超過10%主管機關要求強制公布！根據ETF的持股資料估算，3月較前月新買178張，來到3380張，估計佔股本7.5%，需要再增加1110張才會強制公布，以目前買的速度應該還要3個月以上*比對券商買進張數，推測下單在新加坡商瑞銀這個分點，後續大家應該關注這個分點*對照同樣買進映泰的分點，ETF下單在：瑞士信貸+新加坡商瑞銀兩個分點https：//imgur.com/a/Vof7YB44.被注意條件：第六條：本益比&lt;0或&gt;65X且PB&gt;4X且當日周轉率&gt;5%，撼訊198.05、股價淨值比為8.19，都符合，只要每日成交量&gt;5%(2245張)，就會每日都被注意被處置條件：(連續5天or6/10天or12/30天被注意)，最近30天撼訊被注意了8次，最近10天跟5天被注意了2次，因此只要撼訊每天成交量&gt;2245張，就會再被注意，假設下禮拜二三四都被注意就達成連續5次條件了，因此最快在下周五就會被再被處置，是20分鐘盤，5.神秘金字塔來看，確實有大戶進場6.其實顯卡缺貨不是一天兩天事，但去年法人就是不太喜歡這個題材，今年開始華碩開第一槍顯卡漲價後，市場開始關注這個題材，一線廠像是微星、技嘉、華擎都有動；二線廠像是麗臺、撼訊、映泰等等都飆翻了，期待來一波大行情</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>(非長期投資者，必須有停損機制。請益免填)順利的話應該有機會看300吧，先看3月營收，有破150停損，然後被關20分盤要先圈存才能交易喔提醒大家</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[標的] 恆大</t>
+          <t>[標的] 2603長榮 多</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/07</t>
+          <t xml:space="preserve"> 4/02</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ncaa8702</t>
+          <t xml:space="preserve"> 4</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>GrexJosh</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1581060485.A.0C4.html</t>
+          <t>51</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fri Feb  7 15:28:03 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617363309.A.7BA.html</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1325恆大</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>多</t>
+          <t>Fri</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>比較一下防疫股南六康那香恆大南六109營收65億7260萬跟防疫比較相關的水針不織布比重才23%沒生產口罩康那香40億5600萬跟防疫比較相關的不織布比重才10%口罩日產20萬片恆大營收7億7277萬5000元紡結及複合不織布比重90%口罩日產量40萬片假設每家每月營收因為疫情增加個3000萬南六跟康那香年增可能只增5%恆大年增確可能50%想像空間誰大?所以要炒防疫股只推恆大另外毛寶跟花仙子這種可能只增加1%的就不用討論了</t>
+          <t>19:35:03</t>
         </is>
       </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>2.分類：多3.分析：基本面：有賺錢籌碼面：散戶減少大股東增加4.進退場機制：這船非常非常非常擠，建議沒辦法每天看盤的人不要玩外資也是賣賣買買來回操作，千萬留心下船時機進場：50以下盡量48退場：55-60停損：45</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[標的] 4431敏成-熔噴濾材王者-口罩之母</t>
+          <t xml:space="preserve">[標的]2027大成鋼--真正的美國基建概念股 </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/07</t>
+          <t xml:space="preserve"> 4/02</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MrKing</t>
+          <t xml:space="preserve"> 4</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>arias</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1581066280.A.D01.html</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Fri Feb  7 17:04:38 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617331480.A.239.html</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>敏成</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>10:44:38</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>2027大成鋼</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>多</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>基本面：keyword：敏成為專攻高階熔噴濾材的不織布廠商，具有高水準的熔噴技術與穩定性高製程經驗，採用最佳等級的$熔噴濾材原料$$熔噴濾材原料$超級重要的口罩核心目前應該缺到爆公告自109年1月24日起至109年2月23日止CCC6307.90.50.10-6「紡織材料製口罩，過濾效果及CCC6307.90.50.20-4「其他紡織材料製口罩」=一般醫療口罩管制口罩出口不過不知道有沒有管制原料出口，沒有的話接下來肯定還是會被對岸買到爆口罩之亂沒這麼早結束就算台灣疫情先緩和了只要政府開放外銷一定也會被中國人搶完年頭搶到年底，中國人就算沒病毒也會搶不過如果買錯間就搞笑了一堆人跑去幫忙鎖漲停股如果2月營收出來發現只提高5%10%那還真的是......而且輸入！！熔噴濾材原料！！這關鍵字前十個連結都是這家公司還不買爆根據查詢相關資料敏成：2018年，產品營收佔比分別為靜電濾材及熔噴不織布佔！！47%！！特殊醫療耗材佔43%，布服租賃佔10%。（敏成為台灣唯一技術可供3M熔噴不織布）恆大：2018年產品營收比重為紡結與複合不織布佔93%，熔噴不織布佔！！2%！！貼合布及後處理布佔5%。康那香：2017年產品營收比重分別為衛生棉51%，濕巾類34%，紙尿褲類7%，不織布類8%。南六：2017年，產品營收分別為不織布佔47%，柔濕巾及面膜佔38%，手術衣佔15%，但是主要產品是水針不織布(買南六應該是看好濕紙巾的用量？)籌碼面：盛弘(8403)持股66%，非常穩定技術面：由於是興櫃，沒有漲跌限制本來1/30要進場結果三分鐘就噴射30%一天漲快100%根本買不下去昨天撈個零股今天又大漲了不過以這種技術和實力應該不只這個價錢手上只有一些零股沒什麼好貼出來獻醜的如果有小拉回會慢慢買，買起來當傳家寶反正歷史總會一再重演</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>長期投資敏成為台灣唯一技術可供3M熔噴不織布這次疫情讓世界看到台灣公司的實力未來的病毒只會越來越強口罩還真值得投資而且還是高技術含量的口罩再加上從2012年到現在每年穩定配發股票股利和現金股利附上今日新聞［記者陳永吉／台北報導］由於台灣口罩需求大增，隸屬於盛弘醫藥（8403）轉投資事業的敏成（4431）昨日表示，目前已24小時不停機生產醫療用口罩濾材，訂單已排程到5月。敏成董事長古思明表示，公司從1月30日就全面開工增產熔噴技術不織布（即醫療用口罩濾材），支援防疫所需，現在生產線火力全開，全力配合政府需求生產口罩濾材，以台灣民眾健康及國家安全為優先，為社會盡一份心力。敏成是成立近30年、以製造不織布材料為主要營運項目，專攻高階熔噴濾材的不織布廠商，具有高水準的熔噴技術與穩定性高製程經驗，採用最佳等級的熔噴濾材原料、並有與世界接軌的全套自主檢驗設備，產製各式濾材（空氣、水）與保溫棉等上游材料，符合國際大廠規範。目前敏成以生產醫療及電子產業用的口罩濾材、歐規或美規工業安全規範之立體罩杯式濾材、實驗衣或工作服、車用防塵套、真空吸塵過濾袋、醫療特材等為主，2011年成立醫療生技事業部，正式跨足醫療耗材事業，2012年併購緁邦科技，跨入藥衛材經銷。敏成表示，目前歐、美及台灣之一線醫材大廠皆是敏成客戶，現有口罩濾材訂單已排程到5月份。此外，敏成於過濾材料研發不斷提升，已完成可以吸附並殺死細菌之濾材，等原料量產到位即可依市場需求提供適當等級之濾材。</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>題材面：投資最好的方法，就是跟著世界超強大國的政策走，上一波鋼鐵水泥大賺就是2000年開始的中國基建狂潮，現在美國也要開始搞基礎建設了，而真正的美國基建概念股，除了在美國有設廠的台塑，就是美國鋁捲板跟不銹鋼通路商的大成鋼了，畢竟4/1狂漲的中鴻有可能真的出貨到美國嗎?光運費就虧死了吧!基本面：2020Q4開始虧轉盈，今年1-2月YOY也都成長籌碼面：外資在近五日開始買超，但是投信仍然還在賣超(?)</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[標的] 3m</t>
+          <t>[標的] 美股 AMAT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/07</t>
+          <t xml:space="preserve"> 4/01</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>garyasdf</t>
+          <t xml:space="preserve"> 4</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>mayingnine</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1581045340.A.7DF.html</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Fri Feb  7 11:15:38 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617289084.A.1D0.html</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>mmm</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>多</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>口罩概念股一月底時因為裁員消息跌很低現在算相對低點，目前看來是爬升趨勢</t>
+          <t>22:58:01</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>近期最低158最高好像180買到162應該還好穩穩的大公司</t>
+          <t>(例2330台積電)美股AMAT</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>拜登美國半導體製造重返榮耀多</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>當然台積電目前在製程技術產能良率上都是第一但是不要小看英特爾跟美國資金與科技群落動員的能量美國半導體最猛的是那一支就是amat應用材料說真的我不是太了解為啥其他半導體都往下修正一段可是這隻不知道在招搖啥都沒啥修正型態又非常漂亮最近應材又榮獲英特爾SCQI獎最高供應商獎項所以重點來了英特爾要擴產第一受惠的當然是應材也難怪這隻實在是太強的要買就要買真正的領頭羊誰是最強的領頭羊就是應材</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>(非長期投資者，必須有停損機制。請益免填)進場141.1停損127停利200</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[標的] 精華 空 1565</t>
+          <t>[標的] 大盤創新高，0050怎麼沒有</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/07</t>
+          <t xml:space="preserve"> 4/01</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>OfficeGL</t>
+          <t xml:space="preserve"> 4</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>pigpigpig000</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1581047774.A.5B1.html</t>
+          <t>46</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Fri Feb  7 11:56:12 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617256210.A.2D1.html</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>精華1565</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>空</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>這絕對是疫情最大受害者因為眼睛也能傳染而且中國大陸市場會很慘技術線型一直偏空建議做空</t>
+          <t>13:50:08</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>10%</t>
-        </is>
-      </c>
+          <t>0050</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>請益</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0050，在二月過年後創新高之後，一直沒回來可是大盤卻是已經比二月再創新高0050不是前五十大市值嗎？怎麼大盤漲回來，可是0050卻沒漲回來難道這一波的大盤是由50名以後的股票拉起來的嗎？</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[標的] 國泰金、台新金、兆豐金、台積電 多</t>
+          <t>[標的] 晶心科</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/07</t>
+          <t xml:space="preserve"> 4/01</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>OfficeGL</t>
+          <t xml:space="preserve"> 4</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Abre</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1581048855.A.BB8.html</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Fri Feb  7 12:14:13 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617257343.A.CA2.html</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>國泰台新兆豐台積電</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>多</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>基本面佳，但受到突發事件影響整個大盤本益比影響被過度恐慌而低估價值龍頭地位仍在，不容易受大環境影響買盤也很強勁，股價壓力不下來上漲都有量，明顯多頭氣焰旺盛長期投資好標的，逢低加碼長線佈局</t>
+          <t>14:09:00</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>長期投資</t>
+          <t>晶心科</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>請益</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>https：//i.imgur.com/ROi7Ms3.jpg去年Q4才開始賺錢/彌補去年所有虧損還有找還有個富爸爸聯發科對比同樣業績好很多的M31https：//i.imgur.com/9tPN4FG.jpg或是同樣矽智財的世芯KYhttps：//i.imgur.com/m9746OZ.jpg創意https：//i.imgur.com/Z7YtLRH.jpg晶心科到底怎麼回事?</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>請益免填</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[標的] 永豐餘 1907 多</t>
+          <t>[標的]  3305 昇貿   馬斯克意氣風發 爆炸多 盤</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/07</t>
+          <t xml:space="preserve"> 4/01</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>roxiang</t>
+          <t xml:space="preserve"> 4</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>newconfidenc</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1581052492.A.3F7.html</t>
+          <t>99</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Fri Feb  7 13:14:50 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617232364.A.CE8.html</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>永豐餘1907</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>多</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https：//i.imgur.com/NU0pXAl.jpghttps：//i.imgur.com/hjIGwcV.jpg大陸香港正在搶廁紙好事多今天已發酵台灣紙漿仰賴進口國際原物料會不會漲？台灣會不會發生第二次衛生紙之亂呢？如果六日真的發酵禮拜ㄧ先吃一根漲停</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>今天進場看市場情緒發酵決定何時退場</t>
-        </is>
-      </c>
+          <t>07:12:42</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>昨天兆利應該不少人賺到錢，76分享兩天86大概7-10%都有好不廢話直接看重點盤前再分享一隻有秘密的股票3305（昇貿$全球第三錫膏廠對手AlphaMeta、千住（佔大部分市占率）上面兩家大概佔9成市場利多訂單滿到年底是一定要的（這肯定是股價推升底部動力）2.市場市占率供需結構改變（股價推得更快）3.為space指定用料廠（光一個計畫大概一兆美元市值）當然錫只是小小零件。4.原物料暴漲（但有庫存廉價利得）4.最近晶片很夯、筆電也很夯，太空更默默在耕耘夯如果如果如果，市占率大幅度改變2.分類：多/3.分析/正文：基本面https：//i.imgur.com/52PE0eF.jpghttps：//i.imgur.com/cD5rjPA.jpg營收好、eps估計2021Q3前3-4元技術面：均線全部向上，MACD剛交叉相信大家都會看，剩下KD布林通道都不說了通常只看趨勢跟K棒RSI4.進退場機制：s第一波停利54-60第二波。60-65第三波代表夢中的事情發生加碼80左右賣出</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[標的] TW50指數有人看嗎？</t>
+          <t>[標的] 致新 8081 實力多</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/07</t>
+          <t xml:space="preserve"> 4/01</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>j2708180</t>
+          <t xml:space="preserve"> 4</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>drgon</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1581054912.A.56F.html</t>
+          <t>99</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Fri Feb  7 13:55:10 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617244106.A.246.html</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>TW50</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>10:28:23</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>致新8081</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
           <t>多</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>TW50指數就是0050追蹤的指數目前收盤價是9107.84跟加權指數的K線相比，有兩個關鍵：1.1/8的低點分別是9177.40、11777.452/6的高點分別是9206.57、11749.68同樣是反彈，TW50有進入前面套牢區可是加權就沒有摸到，表示TW50以外的股票反彈很弱2.然後再看11月盤整區的低點分別是8817.58、11409.832/3的收盤價分別是8868.43、11354.92TW50在那天是破底翻！難怪我看加權放空就被軋了所以依然看多，另外加權的週線11270也是強力支撐TW50指數還有個附屬指數是TW50C，今日跌幅分別是-1.06%、-1.01%，加權則是-1.16%兩者差異應該只差在台積電的權重，TW50C規定權重上限是30％</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>同上</t>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>正達今天又漲停了你拿他有什麼皮條呢https：//i.imgur.com/6YYb2K8.jpg致新類比ic龍頭嗎我也不清楚https：//i.imgur.com/f0Milzz.jpg大底突破配息大方9.5元進可攻退可守停損設好不要無本當沖</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>自行進場213最安全停損：跌破198停利230～250</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[標的] 南六</t>
+          <t>[標的] 華邦電 空</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/07</t>
+          <t xml:space="preserve"> 4/01</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>nina801105</t>
+          <t xml:space="preserve"> 4</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>grotwpig645</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1581004898.A.BF5.html</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Fri Feb  7 00:01:35 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617245180.A.8F8.html</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>6504南六</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>多</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>(1)短線最高點至今已修正近三成,反映基本面利空逐底(2)外資今天已經大量獲利出場,明天賣壓銳減,但外資今天賣價不若前幾天漂亮(3)疫情逐漸升溫,有利南六後勢</t>
+          <t>10:46:18</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>持有多單者,上看180元以上不空氣單,今日2/6加碼六張,有圖為憑,目前虧損中https：//i.imgur.com/DrE55iv.png明天操作策略：開盤加碼買進</t>
+          <t>2344華邦電</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>空</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>前段高點以華邦電的尿性空就對了底下一堆肉今天尾盤應該會大逃殺一堆散戶在裡面</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>空31以上回補28</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[標的] 1730花仙子</t>
+          <t>[標的] 中鴻 2014 法人多</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/07</t>
+          <t xml:space="preserve"> 4/01</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>a135792121</t>
+          <t xml:space="preserve"> 4</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>drgon</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1581007343.A.143.html</t>
+          <t>99</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Fri Feb  7 00:42:21 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617245268.A.6B3.html</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1730花仙子</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>10:47:45</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>2014中鴻</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
           <t>多</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>先po個人權http：//i.imgur.com/dTBs7Gm.jpg花仙子是防疫概念股中基本面數一數二好的股票卻是第一檔打回起漲點的要再跌幅度有限雖然2019Q3Q4獲利因和全聯合作結束而下滑但整年eps還是有5.5-6的水準本益比也在12左右的水位在疫情尚未明朗的情況下在這個點位買入算是進可攻退可守在技術面上快速回測季線RSI和乖離都容易強彈要小心的是前幾天套了不少散戶（但討論區的氛圍不少人砍在今天嘻嘻）如果破前面的平台還是要走</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>停利：84停損：69</t>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>https：//i.imgur.com/QQnavdR.jpg上下換手成功法人進場不贏也難https：//i.imgur.com/VOSNhAh.jpg</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>自行進場拼他第二天繼續漲停損：19停利：22～24</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[標的] 2368 金像電</t>
+          <t>[標的] VHQ-KY 心得</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/07</t>
+          <t xml:space="preserve"> 4/01</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>what5566</t>
+          <t xml:space="preserve"> 4</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>yipi1357</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1581010901.A.DC0.html</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Fri Feb  7 01:41:39 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617208162.A.E01.html</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2368金像電</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>請益</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2019年後半段開始金像電營收年增率都開始上升一路上漲到這波肺炎開始狂跌連跌三天後到2/4開始彈感覺已經測到底部了差不多14塊左右2/3大跌的時候外資買超5000張隔天2/4漲5%開始就連賣三天都在玩短線但是2/5跌0.6後隔天投信狂賣最後彈0.55起來都被散戶接走了?然後有大戶一直21張21張賣是在?https：//i.imgur.com/YNijMcg.jpg我是蠻看好金像電自己本來是想進場可是看投信賣那麼多都被散戶接走有點怕怕的2020年金像電整體應該是看多之前有消息說蘇州要停工金像電產能最大的廠又在蘇州所以想等晚一點再進場感覺還會再跌只是後來看消息指出金像電似乎不在停工的範圍內但是多少應該會有影響到現在不知道該不該進場請教各位怎麼看</t>
+          <t>00:29:20</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>不知道甚麼時候該進場請益</t>
+          <t>(例2330台積電)VHQ-KY</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>心得</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>最近在看一些主力奇怪的玩法股票有者很??的基本面一堆人很有信心的去空他主力看準這點在回補日前嘎爆融券開盤即收盤不給他們回補目前融券剩3395張今天融券想逃命還逃不掉只逃掉368張目前券資比73.87%融券最後回補日110/04/22到底有多少融券會被嘎爆呢...</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>(非長期投資者，必須有停損機制。請益免填)不敢買純觀察所以不給停利停損點</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[標的] 5493 三聯 多</t>
+          <t>[標的] 僑威 3078 C波空</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/07</t>
+          <t xml:space="preserve"> 4/01</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>zxcv9404</t>
+          <t xml:space="preserve"> 4</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>lupefan4eva</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1581041375.A.E55.html</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Fri Feb  7 10:09:33 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617210839.A.2DE.html</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>5493三聯</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>多</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>技術面強勢多頭，1月份營收準備開出。主力融資、內部人持股一路增加。</t>
+          <t>01:13:57</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>48.8元買進，目標價60元。</t>
+          <t>僑威3078</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>空</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>1.消息面利多新聞連發，隨便google都一堆。每次利多新聞出來前都會小漲，但新聞出來翌日幾乎收黑，有出貨的味道。2.技術面自高點下來創造了一個跳空缺口，目前雖暫時沒再往下，但也開始盤整近一個月，連缺口的1/3都碰不到，恐怕目前是以盤代漲的B波3.籌碼面前波上漲的融資主力逐漸退場</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>(非長期投資者，必須有停損機制。請益免填)停損：補掉跳空缺口停利：恐怕業績不如大家想像的好，股價回到起漲點的45</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>[標的] 2030，道瓊十萬點</t>
+          <t>[標的] 3317 尼克森 將引發大噴發</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/06</t>
+          <t xml:space="preserve"> 4/01</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Capufish</t>
+          <t xml:space="preserve"> 4</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>wegoliving</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580995750.A.BDB.html</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Thu Feb  6 21:29:07 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617213125.A.0AC.html</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>道瓊</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2030道瓊10萬點標普1萬點</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>參考依據Izaax愛榭克，總經大神2019/11/22，在中正紀念堂辦公益講座先上重點，牛市終點尚未到來。美股依照過去經驗，2030年S&amp;P可能會一萬點、道瓊十萬點目前是熱絡期的最後一段，短期會面臨美國後期循環的榮景泡沫期。「AAII美國投資人信心指數」根本是神指標，是個震盪指標。道瓊三萬點可能落在2020Q2初領失業金人數要到2020H2才會上來，因為H1美國要普查、要人力大盤最後一段衝刺是由樂觀情緒+寬鬆預期所致，而不是在漲企業營利美債德債會大屠殺(末跌段)，跌下來之後是買點。美國十年債回檔目標是利率2.2~2.3%中美貿易戰目前看起來是B劇本發生機率最高，所謂"未達協議、關稅照上、但部分豁免"承上，這個版本就會是漲到12月初，回個5%，回了之後聯準會會再降一次息(或是不降)並且在擴大資產購買幅度，刺激股市走最後一段景氣見頂落在2020H2~2021H1非美市場中國要看到進口＞出口才是復甦開始中國明年CPI有5%，非常迫切，hold不到川普落選台灣市場=看景氣對策燈號，見藍燈買，沒看到綠燈之前不用賣。新興市場明年將有機會補漲，因為美元會走弱，走弱原因在於聯準會又開始擴表。香港要危機入市還是要落井下石？答：危城不入，別碰其他明年通膨題材看油，熱錢會炒台股明年會換主流，因為資金環境很不同(變好了)，所以要找基期低的。參考：https：//reurl.cc/5g6rnn</t>
+          <t>01:52:02</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>聯準會降息+川普連任+中國越爛台灣越好2030，道瓊10萬台股高點12682，意思意思嘎2倍上去就好2萬5保守，樂觀3萬使狀敗，長期投資，不用停損，因為不可能</t>
+          <t>3317尼克森</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>多</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>基本面；宣布配發1塊股利，換算殖利率只有1%多，非常具有想像空間，保留盈餘對未來前景看好，可能進行擴產投資，消息面受惠Overbooking,將進行全面漲價，有助未來毛利挺升，成長動能具想像空間。技術面，今天碰觸年線前高前拉回，明天可望再次攻擊，今日已悄悄打出近十年大底。趨勢成形，任何破前高拉回都是建立部位好空間籌碼面，融資已經卡位，量縮馬上量增，下方支撐力道持續增強，惟股本小，當沖投機慢慢湧現，但也將引出市場投機主力共同推升股價及量能</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>(非長期投資者，必須有停損機制。請益免填)已經進場長期目標價120短期善用資金分配遇掙扎前高點第一次賣出停利停損：48</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>[標的] 2408 南亞科 多</t>
+          <t>[標的] 奇力新 底部起漲多</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/06</t>
+          <t xml:space="preserve"> 3/31</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>fashionbaby</t>
+          <t xml:space="preserve"> 3</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>valkyrie</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580973874.A.1B9.html</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Thu Feb  6 15:24:26 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617191865.A.51D.html</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2408南亞科</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>19:57:43</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>2456奇力新</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
           <t>多</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>在剛過去的1月份，記憶體和快閃記憶體顆粒在上游的交易價均有所上漲。其中，8Gb(1GB)DDR4-2133PC記憶體顆粒環比上漲1.07%，均價來到2.84美元，128GbMLC快閃記憶體顆粒價格環比上漲3.17%，均價來到4.56美元。DRAMeXchange分析稱，漲價的原因是供應商供給數量有限。三星、SK海力士、美光今年的DRAM顆粒供應量增幅將不足20%，預計在2月、3月份時價格會繼續上升。</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>85進場，89停利</t>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>連跌幾個月已經無可再跌外資投信由賣轉買準備底部起漲帶動被動元件的新一波攻勢</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>停利120停損103</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>[標的] 3189 景碩</t>
+          <t>[標的] 3017 奇鋐 多</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/06</t>
+          <t xml:space="preserve"> 3/31</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Zyldr</t>
+          <t xml:space="preserve"> 3</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>Cybrus</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580976423.A.80E.html</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Thu Feb  6 16:07:01 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617192063.A.E00.html</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3189景碩</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>20:01:01</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>3017奇鋐</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
           <t>多</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>這檔波動稍大喜歡一點波動再往下看景碩十年最低年配1.5元十年平均將近三元如果搶短失敗也可存景碩前三季虧了4塊多但今天漲停還買不到鎖7887張如果一般散戶早就怕根本不敢進因此判斷有不錯消息、未來業績配合新聞則是Aip天線載板大單獲得蘋果欽點及外資目標價升至60元轉型從類載板業務轉為生產ABF載板高毛利比重可從1%提升到23%</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>51.4配合明天星期五空軍日多0.1買進55賣出如搶套則領配息也有3%,長期投資</t>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>去年EPS5塊多，上半年訂單還是滿滿，業績持續成長中，6X的股價往下沒什麼空間，坐等營收公布。跟其他散熱比，股本肥了點，股價低了點。技術面：站上四條均線，四海遊龍買不買？</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>進場：69以下停利：75以上看情況出停損：65</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>[標的] 8406 金可-ky 多</t>
+          <t>[標的] 1303 南亞 多</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/06</t>
+          <t xml:space="preserve"> 3/31</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>wiggins510</t>
+          <t xml:space="preserve"> 3</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>Merkle</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580988668.A.E45.html</t>
+          <t>23</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Thu Feb  6 19:31:06 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617192665.A.B7D.html</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>8406金可-ky</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>20:11:02</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1303南亞</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
           <t>多</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>①本益比河流圖每當股價碰到16倍那條線就會漲https：//i.imgur.com/FPbS45y.jpg②毛利，淨利顯著提升https：//i.imgur.com/3OEKJzI.jpgq1-q3毛利率皆較去年明顯提升，尤其q2,q3的稅後淨利較去年同期幾乎double③1/30跌幅尚未漲回，且外資天天大吃貨https：//i.imgur.com/pKz855q.jpg④融資大幅減少，籌碼穩定1/30新春開盤至今，融資少了近500張，從1700驟減至1200，代表籌碼極度集中於大戶(外資手中)https：//i.imgur.com/o35eCsW.jpg⑤股價持續低擋2019全年eps應該輕鬆超越17,18兩年，然而股價卻遲遲還在200以下遊走，真的便宜https：//i.imgur.com/S4GfOzn.jpg</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>綜觀各個指標，不論融資籌碼，外資籌碼，本益比低點，獲利顯著反彈等等目前191元的價位實在很不錯，短線可參考1/30那根跌停價格做進出長線則可放到3/15前後公布全年eps及配息，雖然殖利率大約3.5%上下不算高，如果q4持續有驚人表現，搭配大戶不知哪天不對勁想發動時，這支妖起來也可以很妖一樣，新年快樂大家賺錢就好！免責聲明：本文僅分享，不代表買賣進出建議，投資有賺有賠，跟單一定要三思</t>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>ABFBT載板第二季持續缺貨漲價人人知ABF上游的塑膠原料供應商就是南亞一月二月營收亮眼法人大戶籌碼集中3/29帶量突破前波高點溫漲型慢慢上去不會有大幅度的震盪技術面雖然日KD進超買區但是五日線乖離還在可以接受的範圍今天有持續增量有機會走一波鈍化看好第二季走一個多頭格局</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>(非長期投資者，必須有停損機制。請益免填)今天開盤79塊確認三天過前高五日線有守先進去試單若回檔到月線附近會加碼跌破前波整理低點73.5停損目標為近十年高點88塊第二季如達標會先減碼明天如開高2%以上則五日線乖離過大追高風險大請自行評估風險</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>[標的]2636台驊</t>
+          <t>[標的] 2006 東和鋼鐵 空</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/06</t>
+          <t xml:space="preserve"> 3/31</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>k581503</t>
+          <t xml:space="preserve"> 3</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>pure1121</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580962345.A.BD5.html</t>
+          <t>99</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Thu Feb  6 12:12:23 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617197746.A.48C.html</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2636台驊</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>請益</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>看到這支殖利率近幾年忽高忽低，但平均下來也有接近6%加上物流業會成為趨勢，不才我挺看好這支的光景不知道大家有什麼想法嗎?</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
+          <t>21:35:44</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2006東和鋼鐵</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>空</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>丁老師簡訊會員的股上週收到訊息說利多出盡可以全賣了一個月賺了十幾趴想說40元賣出然後反手做空幹結果又漲了5塊錢差不多該跌了吧氣噗噗</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>停利35停損46發文附圖https：//i.imgur.com/iYbBwZo.jpg</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>[標的] 慶生 6210</t>
+          <t>[標的] 2356英業達</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/06</t>
+          <t xml:space="preserve"> 3/31</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>pubg1106</t>
+          <t xml:space="preserve"> 3</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>awanderer</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580963632.A.011.html</t>
+          <t>60</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Thu Feb  6 12:33:50 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617188882.A.D36.html</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>慶生6210</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>多</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>這波PCB受到肺炎影響普遍大跌這隻工廠在台灣而且毛利高近幾年配息穩定今年估算應該可以配3.5塊左右往年搭配殖利率題材可以小漲一波籌碼面大戶持股穩定成交量偏低需有耐心</t>
+          <t>19:08:00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>進場：48以下緩慢佈局停損：40停利：55</t>
-        </is>
-      </c>
+          <t>2356英業達</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>請益</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>昨天公佈配息1.85，看來大戶生氣氣覺得發太少股版文章說要漲停了...但股版反指標從來沒讓人失望過又一次被大出貨外資狂倒25800張，自營爽倒12000張高檔爆大量幾乎收最低今天接了不少貨，我就是接刀的慘戶之一要繼續抱嗎？</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>[標的] 2884 玉山金 眼睛閉著多</t>
+          <t>[標的] 8299 群聯 老闆多</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/06</t>
+          <t xml:space="preserve"> 3/31</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>kiversonx17</t>
+          <t xml:space="preserve"> 3</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>drgon</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580964521.A.253.html</t>
+          <t>99</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Thu Feb  6 12:48:39 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617168078.A.2B6.html</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2884玉山金</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>13:21:16</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>8299群聯</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
           <t>多</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>外資近日連續大買，看來1月營收應該相當不錯2018年EPS1.58配0.71/0.712019年EPS1.73配0.XX/0.XX?今年的股利政策值得期待!外資花旗日前喊玉山目標價30.X元現在不先佈局等到三月公佈配息再追高?</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>進：拉回即是買點30以前都是便宜價停利：長期存股不出脫近期目標價30停損：不停損愈跌愈持續加碼23以下啟動信貸/房屋增貸</t>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>潘董概念股https：//i.imgur.com/Yay2a1U.jpg控制晶片龍頭不可忽視打回五日線考慮上車聽說大缺貨998299刷起來！那個補充說明一下有的是剛發動要馬上上車有的只是要等拉回買而已如果是要火速上車的我會打沒有的就是拉回買而已像這個打到10日線是最好的</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>自行進場5日線或是10日線停損：跌破月線停利530～550</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>[標的] 3037 欣興</t>
+          <t xml:space="preserve">[標的] 2732 六角 養樂多 </t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/06</t>
+          <t xml:space="preserve"> 3/31</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>jyz524</t>
+          <t xml:space="preserve"> 3</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>jamie0615</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580966080.A.933.html</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Thu Feb  6 13:14:38 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617168246.A.5B4.html</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3037興欣</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>多</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>因為工廠在武漢所以被外資殺下來的股票因為5G的關係，PCB需求只會越來越大腳已經完美打底，等待外資開始回補https：//i.imgur.com/eCMyAfm.jpg進場：40.0進45出破35退場</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
+          <t>13:24:04</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2732六角</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>夏天多</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>基本面：去年最壞情形已過去今年日出茶太展店計畫重啟夏季為旺季應該有不少的話題技術面：今日帶量突破N字底成形籌碼面：投信近日小進場觀察是否持續佈局</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>現在150-152進場/170停利P.S收盤跌破148停損越靠近148越是該買起來買零股也可以六角今年不會給你失望的</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[標的] 康師傅控股 HK 00322</t>
+          <t>[標的] 富邦Vix 多</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/06</t>
+          <t xml:space="preserve"> 3/31</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>asiguo</t>
+          <t xml:space="preserve"> 3</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>facebookig</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580967232.A.B58.html</t>
+          <t>32</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Thu Feb  6 13:33:50 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617158480.A.E8A.html</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>港股00322康師傅控股</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>10:41:15</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>00677UVIX富邦Vix</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
           <t>多</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>中國自19年開始的消費降級風潮，讓泡麵銷量止跌回升，這波20年初的肺炎疫情讓這個風氣雪上加霜，原因是連外賣都被禁止，在疫情未徹底消滅的情形下，至少到夏季天氣變熱之前人民減少外出的情形將持續。從中國下調關稅也可以知道，經濟實情比想像中嚴重很多，人民購買力持續下降中，特別是本身民間負債就重現在更是雪上加霜泡麵等劣有財內需股基本面轉好中，康師傅是中國泡麵市占第一，產品從低價到高價24元人民幣一包都有，比起專打高價而且佈點未深入二三線的日清來說，亘能受惠消費降級，目前股價跟展望相比還有不少空間，看好中國消費降級持續的不能錯過！</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>現在14左右16以下買進，22以上賣出</t>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>富邦VIX已經跌到淨值2塊錢了，現在是最容易也最好下手的時間，每天都龐大的交易量就可以看出市場的熱絡程度，而且可以大膽告訴你，去年全球股市慘跌，富邦VIX都沒下市了，只要金管會出來喊喊話，就是富邦VIX最佳入手時機，再加上近期許多學者、專家、指標都一致性的看齊，有列舉下方多則新聞佐證，絕非空穴來風，美股未來會大跌的效應，就值得大家當作樂透入手賺一波，真心不騙！</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>目前2.4塊錢，5塊錢停利，跌破淨值2塊錢停損！5.相關新聞：小心美股大崩盤！學者警告：通膨走升「恐刺破資產泡沫」https：//ec.ltn.com.tw/article/breakingnews/3483672台股投機泡沫？黃天牧：萬六是高了一點https：//money.udn.com/money/story/5607/5355772「史上最慘崩盤」6月底前恐上演！專家：這7件事散戶最好先準備https：//udn.com/news/story/6839/5323518美金融市場恐斷崖式崩盤！郭文貴：惡性通膨要來了https：//ec.ltn.com.tw/article/breakingnews/348175190年前崩盤恐重演！達里歐：美股泡沫規模已在「半路上」https：//ec.ltn.com.tw/article/breakingnews/3481651股市泡沫快來了！巴菲特指標破新高　未來「幾個月恐崩盤」https：//finance.ettoday.net/news/1945175末日博士：美股將重演2008年崩盤慘劇https：//ctee.com.tw/news/global/425439.html「史上最慘崩盤」6月底前恐上演！專家：這7件事散戶最好先準備https：//www.businesstoday.com.tw/article/category/183009/post/202103160029/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>[標的]  6285啓碁</t>
+          <t>[標的] 3481群創</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/06</t>
+          <t xml:space="preserve"> 3/31</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>jyz524</t>
+          <t xml:space="preserve"> 3</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>yiwin23</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580967876.A.CEF.html</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Thu Feb  6 13:44:34 2020</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>6285啓碁</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>多</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>5G時代，去年蓋越南V1已經南科S2已經認列2019全年營收突破600億，是唯一一間突破600億的網通廠，外資開始買回，低部也打得完整紅K一根一根吃，Q3賣https：//i.imgur.com/LqjLGrh.jpg68已進場82出跌破60出</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617162261.A.14B.html</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>3481群創</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>請益</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>該停利嗎問題：大約在三年多前以8.51的價格買入幾張群創，買了後一直放到現在，帳面上報酬率是148%左右。因為當時沒設停利點，直到現在考慮是否該獲利了結，把這些小小錢投入ETF如00500056？網上面板利多消息多，實在猶豫，請問單兵該如何處置？謝謝。</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>[標的] 3705永信</t>
+          <t>[標的] 2303聯電多</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/06</t>
+          <t xml:space="preserve"> 3/31</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>k581503</t>
+          <t xml:space="preserve"> 3</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>TheEmperor</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580970570.A.175.html</t>
+          <t>63</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Thu Feb  6 14:29:28 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617163168.A.6D1.html</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3705永信</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>多/心得</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>永信為生技醫療業，配息看起來挺穩定的，但都配得還好看營收的狀況看起來是節節高升，加上生技醫療業看起來很有未來(人口老年化、健康意識高漲等)，不才我想聽看看各位骨板巴菲特的想法!</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr"/>
+          <t>11:59:26</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>2303聯電</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>多</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>單純技術面來看，前天跟昨天呈現母子懷抱，今天第三天紅K突破，應該有一段漲幅。</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>跌破開盤價停損，停利老話一句看個人胃口</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>[標的] 2330台積</t>
+          <t>[標的] 3362 先進光</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/06</t>
+          <t xml:space="preserve"> 3/31</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ttmb</t>
+          <t xml:space="preserve"> 3</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>eagleleo</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580925250.A.A27.html</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Thu Feb  6 01:54:08 2020</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617166321.A.936.html</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2.cashistrash美國欠錢太多川普個性未來只會瘋狂製造通膨3.三星晶圓代工資本支出計畫只有台積三分之一還要生產自家晶片顯然打假球4.台積今年資本支出預計超過150億你要等到intel和三星都跪再買股價早漲翻5.美股長期漲贏台股費半長期又屌打美股其它費半市值最高台灣上市還打94折不買？目標價400跟你說啦等到今年月營收季財報出來前兩季看來yoy60～80很輕鬆消息出來多好聽多好炒作標的到時候華爾街就會調本益比和目標價了啦錢那麼多一堆權值都本益比三四十了今年一堆好消息不炒台積炒誰</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr"/>
+          <t>12:51:59</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>(例3362先進光)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>請益</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>今天先進光一開盤就鎖死，請問是有什麼利多消息嗎？看他的營收都還不是很好，最近的利多消息。只是打贏了大立光的官司而已。看這個漲勢感覺好像要衝天了。已經連漲好幾天了現在進場可以嗎？http：//i.imgur.com/4bIBtNy.jpg</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>(非長期投資者，必須有停損機制。請益免填)請益</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>[標的]  TSLA 特斯拉</t>
+          <t>[標的] 6776展碁國際 (釘孤支.籌碼戰)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/06</t>
+          <t xml:space="preserve"> 3/31</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>burnmysoul</t>
+          <t xml:space="preserve"> 3</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>TccReD</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580929044.A.B03.html</t>
+          <t>99</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Thu Feb  6 02:57:22 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617153095.A.B87.html</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>多/請益</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>昨日登上高點968今日開盤暴跌近20%消息面跟基本面都沒有變動這樣的跌幅是否僅代表階段性的獲利了結出場？</t>
+          <t>09:11:33</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>觀察中</t>
+          <t>6776展碁國際</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>釘孤支多</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>之前2/1分享過70~73的全宇昕6651短短10個交易日大漲到139.5將近1倍還有最近很夯的AES上市後短短7天從368漲到573大漲55.7％來聊聊為何看好6776展碁國際會比6781的AES-KY還飆我說過新股掛牌首重籌碼新股會噴發就是籌碼換手戰因為籌碼很輕.在外籌碼少大戶一拉就噴出所以先來看一下6776的籌碼目前展碁國際累積到3/26的籌碼https：//i.imgur.com/9kTYLeH.png400張以上大戶持有64955張股票.佔有88.08％股權表示在外籌碼只有8793張在散戶手上加上這次競拍的5328張以及抽籤的1431張等於在外籌碼有15552張https：//i.imgur.com/QA5xDSc.png而且內部人持有49044張佔股份66.50％這些內部人是無法隨意賣股的要經過申報轉讓才能賣出所以更加深了展碁國際的籌碼安定性再來比較一下AES剛上市時的籌碼https：//i.imgur.com/MT72TQB.png400張以上大戶持有70211張股票.佔有82.2％股權表示在外籌碼只有15208張在散戶手上加上這次競拍的14734張以及抽籤的3683張等於剛上市在外流通籌碼就有33625張由以上籌碼比較可以發現在外籌碼張數多的AES掛牌當天到昨日為止已經大漲55.7％那6776展碁國際在外籌碼比AES更少張.股價又比AES-KY親民許多那6776展碁國際股價會不會噴得比AES更猛更快呢?再來從基本面來比較一下展碁國際和AES-KY展碁國際去年全年賺2.63元EPSAES-KY去年賺14.17元EPS昨天AES-KY大漲到573元.本益比來到40倍順帶一提之前分享過的6651全宇昕去年全年賺4.17元上櫃後大漲到173.5最高價換算本益比也高達41.6倍！如果用40倍本益比來換算展碁國際.股價有機會破百用低一點的30倍本益比來換算好了展碁國際股價也有機會接近80元只要前五天特定大戶進場鎖碼掃貨把少量的在外流通股票通通吃走加上股價又比AES低很多這樣要噴的比AES猛應該是小菜一碟順帶一提今天個人把6221和2467都獲利出清了.資金通通轉押寶6776新股上櫃行情給各位參考所以個人目前僅看好6776展碁國際.3357台慶科之後就不追蹤6221晉泰.2467志聖</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>進場：個人今天收盤前梭哈ALLIN釘孤支.抱股過清明連假停利：80~105停損：破今天開盤價分享個人操作給各位參考所有文章只是記錄本人看好的標的.不具任何推薦買賣的意圖投資一定有風險購買前應謹慎考慮.盈虧自負</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>[標的] 8926 台汽電 多</t>
+          <t>[標的] 3006 晶豪科 有賺錢 多</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/06</t>
+          <t xml:space="preserve"> 3/31</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>YingLinga</t>
+          <t xml:space="preserve"> 3</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>as2990430</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580953785.A.7BC.html</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Thu Feb  6 09:49:43 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617154089.A.A57.html</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>8926台汽電</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>09:28:07</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>3006晶豪科</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
           <t>多</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>12月營收年增率4732%2025非核家園勢在必行實為民間的台電，轉投資的公司已成氣候，往後利潤非常可觀。電價從馬英九時代至今並沒有大漲過，台電狂虧損，今年選舉年結束，可能會調漲電價一波，對台汽電大利多（以往賺2元以上就是調電價時）。發放股利也大方，進可攻退可守。內需產業較不受國際干擾。</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>進場：35以下隨便買停利：會怕40，不怕可長期。停損：越低越加碼。</t>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>今年1.2月賺贏去年第四季均線上目前都持續跟著線上走多頭強勢量能維持在一定的水準且無前高壓力可安心入場https：//i.imgur.com/voc0Giw.jpg停利：無壓力自行決定出場時間停損：抓92上下接近10日線</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>[標的] 高雄銀  多 (官股銀/銅板股)</t>
+          <t>[標的] 2401凌陽多</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/06</t>
+          <t xml:space="preserve"> 3/31</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Afe529</t>
+          <t xml:space="preserve"> 3</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>phantom23</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580954201.A.135.html</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr"/>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617155913.A.311.html</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2836高雄銀</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>09:58:31</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>2401凌陽</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
           <t>多</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>過年封關前，股價最高一度到過10.15元。高雄銀&gt;&gt;近年股利穩定，金融類股的官股銀行，雞蛋銅板股只剩這檔，去年新團隊接管，股利也有0.51，銅板股至少5%以上殖利率營收也成長，看好今年股利0.55~0.6(附圖：歷年股利＆營收)</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>10元以下買都穩穩，((建議存股))https：//i.imgur.com/awqyoIB.jpghttps：//i.imgur.com/cFncGdJ.jpg</t>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>這支股票從3/22開始吃了一隻紅K開始之後就站上30塊了之後就在29-30之間徘徊算是盤整嗎？他同時吃兩種題材車用概念股+半導體這幾天這兩種題材都算熱門他的K線圖都是很長的平原持續向上算是很穩定正報酬的股票也許不飆但長期看好</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>能跌到29.x就買向上多少該賣不知道</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>[標的] A50指 多</t>
+          <t xml:space="preserve">[標的] 盤中3548 分享噴出 </t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/05</t>
+          <t xml:space="preserve"> 3/31</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>illdoit</t>
+          <t xml:space="preserve"> 3</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>newconfidenc</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580911223.A.63B.html</t>
+          <t>99</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Wed Feb  5 22:00:16 2020</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617156428.A.BE8.html</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>消息面：封30城，估計2/9號起開工病毒可垂直感染嬰兒武漢病毒有解藥，美國加州公司吉利德生產的西藥瑞德西韋，美國方面已經將該藥品的化學結構圖轉交北京，並且許可中方可以在2020年4月底前自行生產製造。病毒面：RNA病毒，構造簡單，容易變異4度左右溫度可以穩定存在-60度永久保存在高溫濕熱環境下56度活不到半小時30度空氣中不到一天失去傳染能力也就是說就算封到深圳，海南島，只要開始邁入夏天就沒事。供應鏈：封城影響經濟，到不如說因封城自斷運輸供應鏈，影響口罩，醫療器材上遊原物料提供需求。比病毒來的大。目前大媽已經發現自廢武功，要求口罩，醫療器材，運輸供應鏈等提早開工運轉。估計不會延後開工，超市從來都只是想辦法消庫存而不是屯庫存，超市庫存之供應生活所需會不足。若繼續延後，生活所需物質不足反而只會造成更大的恐慌。也會再崩籌碼面：沒發生熔斷，但融資高位。週一買超200億A股佔186億大媽外資開盤連三日買超200億連三天收盤外資買最高大媽融資剩下一兆100多億，融券剩下82億陸股外資歷史淨流入9千億去年就三千億了。貿易戰談判起漲點在萬三，現在買全都在一拖拉庫外資下面。技術面：短線只有轉換13278站穩，基準13654承壓基準只會往下，還是空方的局http：//i.imgur.com/VU4lzFW.jpg萬三就算破了下面有月MA30撐著Ma30還有上次破MA30低點6%撐著再破也還有經歷過15崩盤貿易戰崩盤的5年線撐著進出：13000↓買入或者4HK基準轉換黃金交叉停損：大媽繼續自宮延後開工短線基準只會再往下成本不夠低不須要急著追，第二波等短線基準轉換黃金交叉。萬三以下找位置進場佛最後紀念一下曾經擁有的517http：//i.imgur.com/DyGmAjy.jpg</t>
+          <t>10:07:06</t>
         </is>
       </c>
       <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>直接查之前文章基本面ok籌碼面ok技術面ok價增量增2.分類：多https：//i.imgur.com/XqFSuVt.jpg分析正文：4.進退場機制前天分享是76（可以查文章）預計還有20-30的肉結案</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>[標的] 2383 台光電 多</t>
+          <t>[標的] 大學光 3218 眼鏡多</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/05</t>
+          <t xml:space="preserve"> 3/31</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>pttmaster</t>
+          <t xml:space="preserve"> 3</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>drgon</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580913828.A.91F.html</t>
+          <t>99</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Wed Feb  5 22:43:46 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617156629.A.C4A.html</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2383台光電</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>10:10:27</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>3218大學光</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
           <t>多</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>CCL三雄基本面最好，但最悲情的一檔，每次拉回都是重殺2019EPS預估9-9.5元，2020有新廠開出產能營收只會更佳，118元股價已具備基本投資價值今年1月有1/3工作天被吃掉，月營收還年增6%，拉貨力道強勁關於湖北黃石廠，目前仍在試產能階段，公司已澄清去年Q4只佔3%營收2月上旬停工缺少的營收哪裡來補?除了趕工之外，還有漲價，對岸的CCL龍頭建滔光電去年底已經暗示過了台股今年最噴的就是漲價概念股，台光電產品有技術優勢，今年又有大量手機要推出，漲價勢必有他的份籌碼面來說融資水位已大減，上一波拉到140籌碼上最大的缺點就是融資不退，導致這次崩盤時跌得很徹底QQ</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>120以下皆買點，125-130遇前波套牢賣壓Q2上看150CCL族群可以一起觀察，籌碼面最佳的還是聯茂</t>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>昨天有隔日沖進場目前看起來應該出的差不多了https：//i.imgur.com/yatpDkN.jpg近視的人越來越多整理兩週準備突破但是要小心突破失敗不怕的人停損設好準備上車大家不要這樣搶我怕有心人到貨沒買到就算了</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>自行進場停損：296停利：350</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>[標的] 大盤</t>
+          <t>[標的] 聯華 1229 配息超車多</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/05</t>
+          <t xml:space="preserve"> 3/30</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>pttgirl77</t>
+          <t xml:space="preserve"> 3</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>ZXSC</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580916346.A.E81.html</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Wed Feb  5 23:25:38 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617117265.A.969.html</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>大盤</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>空，40%起</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>a.武漢肺炎情況無法有效控制b.無法如期開工，就算開工，只要一人出現症狀，代表其他人也有被感染的可能c.無法開工-&gt;人民沒有收入-&gt;減少終端需求，中國市場會衰退嚴重d.無法開工-&gt;企業沒有產能-&gt;企業沒有營收，利潤-&gt;財報下修e.與中國有貿易往來的國家，也會跟著受傷，台灣與台企會是這波受害最深者f.維持台股跌幅(40%)僅次於陸股(50%)看法不變</t>
+          <t>23:14:23</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>a.進場：11573b.獲利出場：6944c.停損：12000d.疫情控制或消滅情況可以機動調整出場價e.3個月內</t>
+          <t>聯華1229</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>多</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>今天聯華公布股利，現金股利1.7元+股票股利1元，今天收盤價46.5對比前幾天公布的聯華食1231股利，現金股利1.6元+股票股利1元聯華配得比聯華食還多聯華食公布配息後從48元一路尻升到今天收盤58.8配更多的聯華沒道理不來一波觀察前幾年配息，聯華配比聯華食多的年份是201820202018聯華配現金1.8+股票1，當年最高股價41.1聯華食配現金1.4+股票0.4，當年股價最高39.52020聯華配現金1.6+股票1.6，當年最高股價47.5聯華食配現金1.6+股票0.5，當年最高股價46.9可以看到如果聯華配得比聯華食多，當年聯華的最高股價都會比聯華食高今年配比聯華食多，現在46.5，雖然不敢想聯華會飆到今年聯華食的最高價58.9但往上一段是有機會的</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>聯華飆不起來啦，明天開盤隨便買停利先看50以上，懶趴大的可以捏住看55以上，懶趴捏爆的不超車聯華食不放手</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>[標的] 4973 廣穎 空</t>
+          <t>[標的] 2021不會被21的聯電</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/05</t>
+          <t xml:space="preserve"> 3/31</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>j855102</t>
+          <t xml:space="preserve"> 3</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>JauJu</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580899379.A.DCC.html</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Wed Feb  5 18:42:57 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617123738.A.647.html</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>4973廣穎</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>空</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>股價超漲了.108年11-12月稅後純益1300萬元，年減69.77%，EPS0.21元營收很爛外資賣得差不多了,這2天玩這支感覺都是單沖客較多</t>
+          <t>01:02:16</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>放空：27回補停損：噴一根以上不代表任何投資建議</t>
+          <t>聯電2303</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>多</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>因面板及驅動ic強力需求，造成缺貨與價格上漲的效應已經開始浮現，這樣的狀況並會隨著需求的不斷成長而放大，此部分不再多說。此部分主要談的是缺貨之後衍伸的市場面。在持續缺貨的情況下，市場必定優先服務擁有長單、或是價格優勢的廠商。而對次級客戶產生排擠。這樣的排擠過程中連帶會衍伸出更多的急單、轉單、插單，等各種生產赤力。而這樣的現象若單由產能利用率來看，無疑的會是很高的。但若以單位時間生產效率來看，則反而會降低。這樣的現象有點類似高速公路如果尖峰時段，將會使車子花更多的時間行駛。因而要行使閘道管制會使效率不致於下降太多。這些生產中的排擠、插單現象，雖會產生更高的經濟價值但也會降低生產效率。不斷累積的生產阻抗，與不斷升高的需求，會使市場花更多的時間來消化需求，也將帶來半年，甚至數年的超級景氣循環。這還不算上美中貿易戰帶來的影響。回到今天的主題聯電今日收盤價50.6雖是多年高點，但仍然只是今年的低點。可以注意到今年一月營收破近三年高點，二月營收也相當接近歷史高點。2021年預估毛利率也將持續提升到27%-30%。相比16年Q1甚至出現過14%的毛利率，這樣的結構將在2021為聯電帶來4以上的eps。(去年第四季聯電eps已達0.92。50塊錢股價，4塊錢eps屌打市面電子諸位哥哥。在未來一年還將迎來各種電動車，5g，換機潮，各種無限想像。保守認為聯電還將迎來第二波的漲幅。</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>50-52進場。72-75退場(非長期投資者，必須有停損機制。請益免填)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>[標的] 6757台灣虎航 請益解套</t>
+          <t>[標的] 2455 全新 鄧不利多</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/05</t>
+          <t xml:space="preserve"> 3/31</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>armysong</t>
+          <t xml:space="preserve"> 3</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>pinnabi</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580843323.A.C9C.html</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Wed Feb  5 03:08:41 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617123855.A.F2A.html</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>6757台灣虎航</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>請益</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>51塊進，之後一直持續微幅下跌到現在小套中但以2019前三季eps3.51以及小道消息(第四季表現佳)，2019全年eps應該會破5來說，假設面對本次疫情的基本面來講，虎航本來主要航線也是日韓及東南亞，旅遊的動能感覺反而會不知道板上大神怎麼看？又或者直接出清有更漂亮的解套方式呢？</t>
+          <t>01:04:13</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>至除權息出場</t>
-        </is>
-      </c>
+          <t>2455全新</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>多</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>(a)一、二月營收維持高檔，三月營收有望持續成長(b)繼3/24拉了一根長上引線後應該洗掉不少人這幾天的盤中有觀察到大單持續敲入，對照盤後籌碼，大概是地緣券商在囤貨了，待一根長紅k有機會化解120的壓力區4.進退場機制：116進場，或是明天開盤視情況加碼停損價：以盤中大單價格111-112.5左右130-140停利https：//i.imgur.com/KIILvK0.jpg繼上次看到智冠盤中大單後買進邏輯一樣，今天站穩130，這次我先發文，才不會被說出貨Q</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>[標的] 短線台股在半年線震盪 個股心得收集分享</t>
+          <t>[標的] 3548 兆利 快上車，別說沒分享</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/05</t>
+          <t xml:space="preserve"> 3/31</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>tatatata2255</t>
+          <t xml:space="preserve"> 3</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>newconfidenc</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580862144.A.799.html</t>
+          <t>58</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Wed Feb  5 08:22:22 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617124319.A.D7A.html</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>裕融聯上聯上發總太亞昕觀察心得分享</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>心得</t>
+          <t>Wed</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>以下標的是觀察版上標的與這幾天好好觀察個股籌碼的搶短心得部分像鬆哥說的一樣打帶跑做短線部分覺得如果台灣疫情沒有失控中長線是不錯的點位前提是大盤在11280半年線附近震盪如果跌破半年線沒有站回或是台灣疫情失控我會出清部分持股減碼觀望只留我看好後勢的營建股以下分享近期看盤在某些點位有明顯買單的個股裕融(9941)關鍵價位103.5中租-KY跟裕融這種租賃業金融股我一直很有興趣之前沒機會進這波尋覓錯殺股時做了一些功課簡言之中租在中國大陸地區獲利貢獻占比為44％,而裕融中國地區（裕隆汽車金融+裕融租賃+裕國+格上中國）獲利佔比則約13%裕融台灣（裕融+新鑫+裕富+格上台灣）整體獲利佔比約達87%我是這樣想若情況維持中國疫情失控而台灣疫情沒有擴大到無法控制就當作今年裕融在中國獲利超慘少掉那13%過年前的高點119跌掉13%的價位103.5我打算開始往下慢慢接但有同樣想法的人也很多2月3日103.5排隊一長串只有4位幸運兒撿到我則是買到104~107附近這個價位昨日賣出一半賺了些便當錢近期若有機會再大跌且沒跌破半年線我還是會排隊在103.5這價位附近至於中租-KY因為中國大陸地區獲利貢獻占比為44％中租控股策略長廖英智也說在大陸客戶是製造業都有機器作抵押不會有違約問題，客戶頂多只是往後付款要買到過年前高點143.5扣44%的超安全價位95.0我覺得不太可能但因為法人也都還套在均價130上下我怕法人邊拉邊出目前只敢觀望裕融跟中租-KY相比我覺得裕融相對安全但反過來說裕融漲幅小如果中國疫情明顯控制住了中租-KY反彈的幅度會比裕融大很多如果中國疫情控制住中租-KY處於低檔我會開始買進營建股觀察聯上聯上發華友聯都是玉瑋大分享研究過的好標的外資跟波段主力都賺過一波過年前賣掉這兩三天明顯都有主力接回總太觀察主力從29.5附近開始接回反正再差都跟華友聯一樣有很不錯的股利可以降低成本所以29.5附近我就放心進了目前只買少量價位能再甜我會再加碼總太有主力不讓股價跌破29但是到31附近又會再把他多買的張數丟給你漲勢還是要靠外資拉抬在還沒大幅拉抬前這隻我都是打帶跑有賺出一半賺便當錢聯上跌到14.3主力開始吃貨接著瑞士信貸開始邊吃貨邊拉抬上一波漲勢也是瑞士信貸拉的因為自己之前就有跟單玉瑋大買在14.0附近成本算低所以也放心跟著瑞士信貸加碼如果您有想進場或加碼14.3沒守住可視情況跑聯上發因為建案認列日子快到了主力根本沒有跑所以也沒什麼跌這一波跌勢只有10.0撿到幾十張覺得近期要再跌破10.0機會不大亞昕這支為何跌那麼慘?因為之前某社團跟另一個line群組的老師都有推薦所以群友從17元瘋狂買上去但是年前該位老師說其實他現在也還沒有買再找點位進場所以疫情一來群友都非常緊張1月30日跌到16.9跌回這半年大家平均成本價1月31日明顯17.017.05這兩檔大量群友掛賣單想解套如果你是持有成本更低的主力你會怎麼做?接手17.05的賣壓?怎麼可能XD要接手當然是用更便宜的價格接所以華南永昌-林口大量掛賣單製造賣壓先殺下去到主力成本價附近撐住因為他手上還有將近1萬張的亞昕股票再殺怕殺到自己掛賣壓對主力的好處是可以把其他短線賣壓社團line群賣壓都給逼出來之後其他主力要拉抬股價也比較好拉一方面也減少自己手中的部位做資金調節萬一真的崩盤他也才有攤平的現金部位判斷主力成本在15.8上下其實已經是有點甜的價位但因為這隻建案認列還早加上想賣的line群友還沒認賠賣完只有先買入少量看賣壓緩解後我會視情況再加碼因為每天能集中精神觀察的個股有限如果版友有其他"明顯看到主力在某個價位有守的標的"也可分享給我關鍵價位一到我來幫你抬轎XD其實還有觀察一隻中國營收佔5-7%的餐飲股這支主力現在開盤前都會故意掛假賣單快開盤前1分鐘馬上撤單自己吃貨主力吃貨的價位也頗甜可是我還沒看到一月營收不確定是不是錯殺所以還不敢分享如果跟單有賺到的大大PO文我下次都會幫他抬轎因為對我來說跟單賺到的都是多的當然就先回饋給讓我賺錢的大大我還蠻喜歡大家看好一支股票然後看對的那種感覺~謝謝讓我跟單過的鬆哥roxiang大f204137大tenghui大leonard6666大華安大財哥玉瑋大https：//i.imgur.com/VNMEEfn.jpg</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>大盤在11280半年線附近震盪跌破半年線沒有站回或台灣疫情大失控我會再度出清部分持股減碼觀望(營建股我還是會留倉)</t>
-        </is>
-      </c>
+          <t>01:11:57</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>上次分享完大田有上車至少都有60%起跳今天分享兆利，希望大家也能一起上車賺錢前幾天po隔天3%小幅度估計是吃貨，因為下來沒什麼量能吃3.30.2021尾盤抓到瞬間吃貨https：//i.imgur.com/WanVW6N.jpg雖然量不大，但從綠盤，直接吃到翻紅更可以確定多頭有意者，已經吃不太到籌碼突破前趨勢效率市場的開始兆利樞紐第二大廠動能為蘋果的M1MacBook華為手機整個大陸市場摺疊手機消息，可能這幾天有機會出來筆電漲價是確定了https：//i.imgur.com/uLbcLdc.jpgKD交叉向上價漲量增價跌量縮典型吃貨突破這幾天盤中一度出現40-80張搭配筆電供給需求強勢NB的成長率到今年前都是供不應求甚至還缺料件，堪比航運飢渴https：//i.imgur.com/n2SuqPG.jpghttps：//i.imgur.com/YnKDJZ4.jpg2.分類：多典型波浪上升突破一年線來看準備突破搭配題材主力最愛題材時候拉上去邊拉邊出貨https：//i.imgur.com/MoFT2Ib.jpg消息有沒有可信度，看營收有9成準持續五億，向上很多人一定想說，等突破暴量再來追結果噴5-7%心想，應該等等會回檔結果就是錯失一個賺錢的機會股市裡要賺錢就要把握效率市場有閒錢可以趁開盤的低接幾張，突破再加碼突破一波完到目標前就分批出貨就是閃人停損75停利120第一波。140第二波150出清謝謝一鞠躬</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>[標的] 康那香、恆大-多</t>
+          <t>[標的] 美股 arkx</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/04</t>
+          <t xml:space="preserve"> 3/30</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>HALA0623</t>
+          <t xml:space="preserve"> 3</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>mayingnine</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580825357.A.1E8.html</t>
-        </is>
-      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tue Feb  4 22:09:15 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617115690.A.CB0.html</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>康那香、恆大</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>多</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>今天解開漲停是大戶倒貨沒錯，但恭喜有繼續搶進的鄉民們，因為兩支防疫股在sars期間共漲了150多%，從起漲點到今天兩支大約各漲近90多%，距離的150%還有空間，所以繼續看多。</t>
+          <t>22:48:07</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>康那香-24-25停利，恆大-37-38停利</t>
+          <t>(例2330台積電)ARKX</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>無腦TOTHESKY多</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>木頭姊的實力無庸置疑雖然最近科技股流血嚴重但是中長期像這種太空ETF第一很少國家有籌碼少又是真正未來TOTHESKY跟火星人概念族群股這種股票賺多少我不是在鬼扯這種股票至少要放到漲100倍對100倍所以今天我這超級奈米戶已經買了500股未來如果不幸大盤大崩跌我會再進場買坦白說我為啥要玩美股就是為了太空概念股剛好木頭姊推出這個etf所以我計劃我未來資產都要投入這支ETF單壓重壓對我來說是重壓</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>(非長期投資者，必須有停損機制。請益免填)進場20.11退場我真的不是再亂扯我真的要放到漲100倍才賣這支是真正的火星人概念股</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>[標的] 00694B 富邦美債1-3 做類定存合適性</t>
+          <t>[標的] 2633 台灣高鐵 女友解套多</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2/04</t>
+          <t xml:space="preserve"> 3/30</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>tooth9</t>
+          <t xml:space="preserve"> 3</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>aspwell520</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580831924.A.854.html</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tue Feb  4 23:58:37 2020</t>
+          <t>https://www.ptt.cc/bbs/Stock/M.1617115798.A.424.html</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>00694B富邦美債1-3</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>請益</t>
+          <t>Tue</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>這篇文其實比較像請益，但因為有明確的標的，所以用標的文想用短年期的美債取代一半的定存，就是在緊急應變金跟短期可用資金上，想用一半現金定存，一半用富邦美債1-3年來取代，不曉得是否可行？考慮富邦的原因很簡單，因為可以配合他的定期定額機制，可以把它當作零存整付，同時這支也是美債1-3年期規模跟交易量較大的，可參考下面這篇文：https：//www.etf168.com.tw/etf168/Article/Article?articleID=768這檔今年總內扣是0.18%，以台灣來說看起來是可以的個人財務規劃，大概1~2年內有筆要用的的資金，所以這筆錢要放在低風險資產上，低風險資產主要就是定存，但定存實在利率很低以富邦的定期存款為例，一年期1.065%，兩年期1.09%，三年期1.115%美國的年期美債ETF的shy的平均殖利率是1.56%，比定存高出許多富邦的00694B的殖利率，2018年1.58%，2019年1.86%，扣掉匯差的話應該差不多不曉得以上的想法有沒有問題？講一點點投機的角度，最近世界股市都創新高在新高，很久沒有金融危機了，來襲的機會很大，再加上台幣換美金現在匯率也算略低，好像也有一點點點點的套利空間</t>
+          <t>22:49:56</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>美債不停損，要用錢時領出</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>[標的] 9958 世紀鋼 多</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2/05</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>roxiang</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580838747.A.C32.html</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Wed Feb  5 01:52:21 2020</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>9958世紀鋼</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
+          <t>2633台灣高鐵</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>多</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>其實近來很少發標的文了...一來其實自己操作比較好，不用擔心害到版友。這次應該是最後零星的幾次了吧看到陳爸的楠梓電標的文，老實說，我禮拜四也吞了一根楠梓跌停但我買在35而已當天直接果斷認賠-10%但你要說怪陳爸嗎？？股票是你自己買的，陳爸又沒叫你跟單。禮拜一我又勇敢接回來，今天一出直接把10%倒賺回來甚至多贏2%探討分析之前，想提醒大家離岸風電股多半已有漲一小段距離提前反應，此為風險，請慎思自從武漢肺炎鬧的世界人心惶惶後，就開始尋找防禦股產業營收必須要絕大仰賴台灣自身內需，這樣就比較不會受世界景氣面影響所以避開電子股，找上了風電概念股不挑台船的原因是匯兌損失，財報依然不好看不挑上緯的原因是大陸有廠，自己都停工了，有更好的世紀鋼當然選它世紀鋼，2018年度營收比重分別為：工業廠房鋼構工程52%、高樓建物鋼構工程17%、其他鋼構(含鋼品)17%、公共工程鋼構工程14%。多半皆為台灣內需，符合內需股條件2019年11月上旬，與子公司世紀離岸風電設備股份有限公司共同與全球離岸風電廠商哥本哈根基礎建設基金(CIP)簽署彰芳西島風場計畫69支水下基礎基樁合約。2020年台北港廠第一季已開始啟用2020年下半年起開始出貨沃旭能源81支水下基礎基樁，2020年第三季起開始貢獻營收，進入入帳高峰，預計2021年第一季可出貨完畢。哥本哈根基礎建設基金（CIP）165億元的62支套水下筒式基樁（Jacket），以及69支水下基礎基樁合約，出貨時間則預計落在2021年。假設真的景氣面未來受影響。離岸風電還是要做，世紀鋼於12月營收已開始浮現離岸風電帶來利多的味道風電概念股個人認為算是進可攻退可守的防禦股，若股災來臨時有可能會被市場想起故個人在這幾天陸續分批買入，但令人擔憂的則是千張大戶持股比例一直逐漸下降對於籌碼面不算漂亮。表示仍有風險。風電現在的價位，也已反應風電利多。且Q3EPS並不等於本業賺錢，是以售後租回的方式處分桃園觀音的新物流中心所致特此周知。</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>進場：目前五日線下分批買入。退場：若均線開始全部上彎且持續上漲時，以跌破十日線或二十日線為出場點。認賠：跌破63元昨日最低點就認賠，風險有限</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>[標的] 6504 南六 請益</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2/04</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>joe10337</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580802771.A.B67.html</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Tue Feb  4 15:52:49 2020</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>6504南六</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>請益</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>今天防疫概念股紛紛打開漲停爆大量尤其是康那香、恆大很明顯有大戶超大量倒貨小弟今天受不了這麼刺激，在盤中把手上的康那香恆大出光了。後來看到康那香、恆大沒多久又漲停鎖死惋惜少賺之時，看到南六殺下去又爬回來，所以忍不住進場追了兩張。結果就是原本想進場撿便宜最後撿了滿手血...目前也只能安慰自己這波防疫熱潮到5月之前應該不會結束。想請問各位版友後續怎麼看南六這檔股票呢？</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>請益</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>[標的] 2642 宅配通 多</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2/04</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>chen0625</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580810888.A.14A.html</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Tue Feb  4 18:08:06 2020</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>2642宅配通</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>多</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>有名的貨運業去年全年營收成長10%網購一天比一天盛行下未來營收只會逐漸上升而疫情效應會導致民眾減少出門貨運或許能吃到更多訂單去年前3季eps1.29大幅超過前年以存股來說也算不錯</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>28.45進場https：//i.imgur.com/dKVti9D.jpg32以上停利業績衰退或產業變動停損否則未到停利點長期投資</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>[標的] 大盤 空</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2/04</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>aqdstr</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580822123.A.DAF.html</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Tue Feb  4 21:15:21 2020</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>大盤</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>空</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>3.1武漢肺炎大陸似乎越封越多地方。3.22/1越南禁止大陸籍進入，陸幹返鄉一般都是12天起跳，推估越南有廠的一半以上沒有回去。再來，這兩天陸續聽到越南許多工廠在鬧，不願意陸幹管理，生產勢必受到影響。3.3許多工廠原料來源在大陸，大陸沒開工，3、4月斷料危機。3.42/10大陸許多城市將開工，是否能如期，目前還未知數。</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>雖然美期指大漲，但仍不看好，買口11500put來看看自己的判斷對不對...https：//i.imgur.com/xqVzHaP.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>[標的] 6590普鴻</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2/04</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>a22804649</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580822442.A.78B.html</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Tue Feb  4 21:20:40 2020</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>6590普鴻資訊</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>多</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>主要從事金融相關系統軟體開發，是台灣最大加解密解決方案之供應商，營收比重軟體服務約八成、銷貨收入兩成。主要客戶為銀行端，主要產品可分為電子支付、金融交易、資訊安全及防制洗錢……等，皆為目前金融業主要大力推廣之業務，且目前金融業的資訊排程大多都排到2020下半年以後了，考量在金融業電子化的趨勢不變的狀況下，對於金融業資訊商的潛力是非常大的。技術面為一直在區間內盤整，籌碼有特定幾個券商在小量買入。缺點就是股本小量也少，上櫃到目前最大量也才一千張，掛單要很有耐心。</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>25停損</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>[標的] 三商壽（2867）</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2/04</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>crazyED</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580825245.A.32A.html</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Tue Feb  4 22:07:23 2020</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>三商壽（2867）</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>請益</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>用最近的EPS推算怎麼算都有保底16雖然武漢肺炎造成股市預期性的大崩這幾天漲漲跌跌，開市大跌完拉回2.5趴多之後又跌一波，今天只回拉0.82%，感覺有點沒力不知道大家怎麼看這支我先自首大跌後小弟我一直接刀ＱＱ</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>10停損，16停利</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>[標的] 恆大 4968 請益</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2/04</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>zakijudelo</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580792383.A.E12.html</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Tue Feb  4 12:59:41 2020</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>恆大</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>請益</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>今天恆大、康那香盤中相繼打開爆大量一些防疫概念股也紛紛鎖不住花仙子甚至還跌停現在於政府新的政策下可能會被解讀為偏空美國藥廠的藥也傳出有部分改善症狀的好消息是否該因此先獲利了結了呢？</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>請益</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>[標的]元大石油正二</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2/04</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>taidaren</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580772989.A.5F2.html</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Tue Feb  4 07:36:27 2020</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>石油正二</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>多</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>肺炎對中國石油需求衝擊二成預估對世界航運也造成衝擊應該是系統性風險帶來的低點</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>視疫情發展11.5總資金投入三成14以上分批出場</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>[標的] 伍豐8076 曾經的王者</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2/04</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>sky5566</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580781254.A.9D5.html</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Tue Feb  4 09:54:12 2020</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>買個兩張當傳家之寶好歹以前也是股王，我尊重你，所以買兩張放著拜大家都說你是爛股但曾經你也是讓我兩年翻三倍的乾爸大家怎看？這波該炒底一下我們的五哥了吧！？</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>[標的] 台指 多</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2/03</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>shala</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580729736.A.15F.html</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Mon Feb  3 19:35:33 2020</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>台指</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>多</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>之前已經預告過創造歷史的路上必然有很多人意志不堅而下車空軍大集結化為飛天的燃料而堅守不退的勇者們準備好香檳，迎接新紀錄的煙火吧！</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>突破歷史高點</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>[標的] 2618 長榮航</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2/03</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>hortl233</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580729889.A.0D9.html</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Mon Feb  3 19:38:07 2020</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>長榮航2618</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>中長多</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>雖然因為停飛中國導致營運受創但長期來說總需求仍然不變，國內亦尚無可取代的公司(華航除外)籌碼面來說，今日價格已觸及史上低價5日集中自年前就開始持續上揚看好短期內噴一波回檔收著亦可當存骨</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>短期抓12.2停利</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>[標的] 和益1709 多</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2/03</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>TonsilInfla</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580732661.A.835.html</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Mon Feb  3 20:24:19 2020</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>和益1709</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>多</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>這檔比較冷門的防疫概念股算清潔劑上游烷基苯：清潔劑的主要原料大陸也是有設廠也位於低檔1/31爆量上漲雖然這幾天又下跌但這絕對有鬼</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>抱到噴出</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>[標的] 3481 群創</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2/03</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>ester770815</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580736719.A.D4D.html</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Mon Feb  3 21:31:57 2020</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>3481群創</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>多</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>https：//imgur.com/mLDqKcb先附上今日進場對帳單本來先前發文預估這波群創會跌破7元沒想到3日內就站回先前跌停之前的價位了外資借券又開始瘋狂還券了最近3日就還了6萬張今日先認錯補個300張回來這次肺炎嚴重到大陸很多面板廠都無法產能全開看來2月份面板報價又要上升了這禮拜四友達開法說會到時候應該會有好消息再衝一波短線上預估群創應該會到11元價位後續東京奧運帶動的需求年底前應該有機會上看15元</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>不停損頂多再套幾個月短線11元先停利後續看需求再看要不要續留</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>[標的] 網龍 3083</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2/03</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>garyoldb</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>https://www.ptt.cc/bbs/Stock/M.1580739337.A.019.html</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Mon Feb  3 22:15:35 2020</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>網龍3083</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>多</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>機會點：「你是誰派來的?黃易派來的」原汁原味的端遊搬成M過去幾年已經證明可以吸金黃易群俠傳過去端遊月營收大約1億參考近年端遊改成M時的月營收：課金互打互殺Game天堂：2億天堂M：15億社交冒險可愛game楓之谷：0.5-1億楓之谷M：3億以遊戲模式來說黃易M偏向天堂M的互打互殺所以課金程度天堂M&gt;黃易M&gt;楓之谷M黃易M月營收先亂抓3-5億假如加上目前0.5億月營收單月巔峰月營收可能達到5.5億自有產品先隨便用稅後淨利率20%來算550,000,000*20%/股數單月eps=1.28*12全年eps=15.36參考宇峻的15倍PE現價78，主力人來瘋說不定噴到235元但實際上手遊熱度會衰退假設全年EPS為=8.4稍微漲一下應該能120元其他已著手開發的：尋秦記M、中華英雄M持有的IP尚有：武林群俠傳M、大唐雙龍傳M看起來都有固定客群能吸金的遊戲四個超巨大風險點：a.大盤很差，肺炎全球炸開覆巢之下無完卵有錢沒命花全球一起崩盤b.電玩展延期遊戲股集體自殺中猜測反彈完大概還會有低點c.前面漲過一波了今天吃跌停說不定已經反映完下山中那就慘套綿綿無絕期d.產品不確定性太高先從2019Q4底說要推延到2020Q1底說推出又延2020Q2底才要推若踢鐵板無限延後那猜股價會直接下地獄</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>每月定期定額買分攤成本價漲到目標價或起漲後破5日線出場遊戲不出了就停損</t>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>女友買了一張，成本高到不好意思跟我清楚講，只說是前年年末買的，估計成本在38左右。我今年2月進場買了3張，想說多少做她解套的燃料。這支從3月在30~31.2上上下下了一個月有餘，我看也洗得差不多了。從線型來看，昨天剛站上所有均線，也有要突破的勢態，我就不截線了，自己去看看，今天收了個31，明天往上就能衝出30泥沼而且疫苗陸續到了，大眾運輸可以期待後續發展，趁現在價低布局也是不錯吧首發希望別噓，大家理性討論給個牡蠣嘛：）</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>進場：明天看看情況停利：女友成本在哪我就哪邊賣，保守抓個38停損：沒在停</t>
         </is>
       </c>
     </row>
